--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Q_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8208DF36-D48D-4778-9C0C-7495448E5CC4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C828F20C-E619-4CBE-93C8-9FEAB1EB022D}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +475,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -552,8 +548,8 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <f>B3*B5*(B6-B7)/B4</f>
-        <v>1324.6875</v>
+        <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
+        <v>16.875</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -564,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>4184</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -575,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3.14</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -586,8 +582,8 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>B11*B10*B7</f>
-        <v>197066.4</v>
+        <f>fluid_mass*c_water*dt_cool</f>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C828F20C-E619-4CBE-93C8-9FEAB1EB022D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DCCBF9-4B41-4AF2-8C0F-AAAD5BEE4635}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>78.5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -549,7 +549,7 @@
       </c>
       <c r="B8">
         <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
-        <v>16.875</v>
+        <v>1324.6875</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4184</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.78539749999999997</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>15</v>
+        <v>49291.547099999996</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DCCBF9-4B41-4AF2-8C0F-AAAD5BEE4635}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5F0B48-AA7F-4757-B37E-983630E6E4DB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,6 +153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.78539749999999997</v>
+        <v>1.767144375</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -583,7 +587,7 @@
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>49291.547099999996</v>
+        <v>110905.980975</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E5F0B48-AA7F-4757-B37E-983630E6E4DB}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00523E2A-2A59-4228-B306-DA4D203139BA}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00523E2A-2A59-4228-B306-DA4D203139BA}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB5C519-45B0-41AF-BCFE-80C9FF370A59}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78.5</v>
+        <v>706.5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="B8">
         <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
-        <v>1324.6875</v>
+        <v>119221.875</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB5C519-45B0-41AF-BCFE-80C9FF370A59}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD83923-3EA0-40DA-8F6F-B9F76DC52009}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1.767144375</v>
+        <v>1.4137154999999999</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -587,7 +583,7 @@
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>110905.980975</v>
+        <v>88724.784779999987</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD83923-3EA0-40DA-8F6F-B9F76DC52009}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5715A896-7FCC-47D7-86D3-C77A9A93E501}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>k_lid</t>
   </si>
   <si>
-    <t>W/(m*k)</t>
-  </si>
-  <si>
     <t>area_lid</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>J/(kg*degC)</t>
+  </si>
+  <si>
+    <t>W/(cm*k)</t>
   </si>
 </sst>
 </file>
@@ -153,6 +153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +479,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,100 +497,100 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.45</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>706.5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
-        <v>119221.875</v>
+        <v>1192.2187499999998</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4184</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1.4137154999999999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>88724.784779999987</v>
+        <v>14779.98</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5715A896-7FCC-47D7-86D3-C77A9A93E501}"/>
+  <xr:revisionPtr revIDLastSave="630" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54F9C374-E4CF-4E55-B275-75305578603D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.23549999999999999</v>
+        <v>0.58874952899999999</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -587,7 +583,7 @@
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>14779.98</v>
+        <v>36949.920440039998</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>

--- a/Q_Cool/Q_Cool.xlsx
+++ b/Q_Cool/Q_Cool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Q_Cool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54F9C374-E4CF-4E55-B275-75305578603D}"/>
+  <xr:revisionPtr revIDLastSave="15302" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6723FF3C-0949-4C90-A1E7-A777146C39E9}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
@@ -153,6 +153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -549,7 +553,7 @@
       </c>
       <c r="B8">
         <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
-        <v>1192.2187499999998</v>
+        <v>662.34374999999989</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -571,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.58874952899999999</v>
+        <v>1.1775105975</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -583,7 +587,7 @@
       </c>
       <c r="B12">
         <f>fluid_mass*c_water*dt_cool</f>
-        <v>36949.920440039998</v>
+        <v>73900.5650991</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
